--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -543,10 +543,10 @@
         <v>0.27653</v>
       </c>
       <c r="I2">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="J2">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>0.2305276982222222</v>
+        <v>0.07445917448777778</v>
       </c>
       <c r="R2">
-        <v>2.074749284</v>
+        <v>0.6701325703900001</v>
       </c>
       <c r="S2">
-        <v>0.06047481477928923</v>
+        <v>0.03091957640387859</v>
       </c>
       <c r="T2">
-        <v>0.06047481477928921</v>
+        <v>0.03091957640387859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.27653</v>
       </c>
       <c r="I3">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="J3">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
         <v>0.7173747712366667</v>
@@ -635,10 +635,10 @@
         <v>6.45637294113</v>
       </c>
       <c r="S3">
-        <v>0.1881904289698512</v>
+        <v>0.297893767988362</v>
       </c>
       <c r="T3">
-        <v>0.1881904289698512</v>
+        <v>0.297893767988362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.27653</v>
       </c>
       <c r="I4">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="J4">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>0.4128372905022222</v>
+        <v>0.4617849440355555</v>
       </c>
       <c r="R4">
-        <v>3.71553561452</v>
+        <v>4.156064496319999</v>
       </c>
       <c r="S4">
-        <v>0.1083004726531331</v>
+        <v>0.1917587047867671</v>
       </c>
       <c r="T4">
-        <v>0.1083004726531331</v>
+        <v>0.1917587047867671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.27653</v>
       </c>
       <c r="I5">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="J5">
-        <v>0.4673641157382369</v>
+        <v>0.630749404103418</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>0.4208345073766667</v>
+        <v>0.2653242977122222</v>
       </c>
       <c r="R5">
-        <v>3.78751056639</v>
+        <v>2.38791867941</v>
       </c>
       <c r="S5">
-        <v>0.1103983993359634</v>
+        <v>0.1101773549244102</v>
       </c>
       <c r="T5">
-        <v>0.1103983993359634</v>
+        <v>0.1101773549244102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.10505</v>
+        <v>0.05396166666666666</v>
       </c>
       <c r="H6">
-        <v>0.31515</v>
+        <v>0.161885</v>
       </c>
       <c r="I6">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="J6">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N6">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q6">
-        <v>0.2627230466666666</v>
+        <v>0.04358956880611111</v>
       </c>
       <c r="R6">
-        <v>2.36450742</v>
+        <v>0.392306119255</v>
       </c>
       <c r="S6">
-        <v>0.06892068809059776</v>
+        <v>0.01810080507048742</v>
       </c>
       <c r="T6">
-        <v>0.06892068809059775</v>
+        <v>0.01810080507048742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.10505</v>
+        <v>0.05396166666666666</v>
       </c>
       <c r="H7">
-        <v>0.31515</v>
+        <v>0.161885</v>
       </c>
       <c r="I7">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="J7">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q7">
-        <v>0.8175628653499999</v>
+        <v>0.4199624447316666</v>
       </c>
       <c r="R7">
-        <v>7.358065788149999</v>
+        <v>3.779662002585</v>
       </c>
       <c r="S7">
-        <v>0.2144729819182316</v>
+        <v>0.1743916849195241</v>
       </c>
       <c r="T7">
-        <v>0.2144729819182316</v>
+        <v>0.1743916849195241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.10505</v>
+        <v>0.05396166666666666</v>
       </c>
       <c r="H8">
-        <v>0.31515</v>
+        <v>0.161885</v>
       </c>
       <c r="I8">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="J8">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N8">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q8">
-        <v>0.4704938780666666</v>
+        <v>0.2703361503822222</v>
       </c>
       <c r="R8">
-        <v>4.234444902599999</v>
+        <v>2.43302535344</v>
       </c>
       <c r="S8">
-        <v>0.1234256462468264</v>
+        <v>0.1122585539522142</v>
       </c>
       <c r="T8">
-        <v>0.1234256462468264</v>
+        <v>0.1122585539522142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.10505</v>
+        <v>0.05396166666666666</v>
       </c>
       <c r="H9">
-        <v>0.31515</v>
+        <v>0.161885</v>
       </c>
       <c r="I9">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="J9">
-        <v>0.5326358842617631</v>
+        <v>0.369250595896582</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N9">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q9">
-        <v>0.47960798105</v>
+        <v>0.1553250060938889</v>
       </c>
       <c r="R9">
-        <v>4.31647182945</v>
+        <v>1.397925054845</v>
       </c>
       <c r="S9">
-        <v>0.1258165680061073</v>
+        <v>0.0644995519543563</v>
       </c>
       <c r="T9">
-        <v>0.1258165680061073</v>
+        <v>0.0644995519543563</v>
       </c>
     </row>
   </sheetData>
